--- a/USA/state/data/model_report/t2m_mean_1982_1991_DIC_values.xlsx
+++ b/USA/state/data/model_report/t2m_mean_1982_1991_DIC_values.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>sex</t>
   </si>
@@ -64,6 +64,9 @@
   <si>
     <t>DIC average</t>
   </si>
+  <si>
+    <t>1de</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +144,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -165,6 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,9 +1346,26 @@
         <v>2496</v>
       </c>
     </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>85</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="10">
+        <v>36728.660000000003</v>
+      </c>
+      <c r="K29" s="10">
+        <v>4888.9826999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>